--- a/excels/elstat/formated katastasi asxolias greece.xlsx
+++ b/excels/elstat/formated katastasi asxolias greece.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/elstat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="7500" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="5980" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Total</t>
   </si>
@@ -100,13 +105,16 @@
   </si>
   <si>
     <t>Non Active Total</t>
+  </si>
+  <si>
+    <t>Ages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -133,6 +141,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -219,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -249,12 +263,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -585,16 +605,17 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -633,7 +654,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -674,7 +695,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -715,7 +736,7 @@
         <v>5693</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -756,7 +777,7 @@
         <v>12625</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,7 +818,7 @@
         <v>10783</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +859,7 @@
         <v>10280</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +900,7 @@
         <v>11047</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,7 +941,7 @@
         <v>22047</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -961,7 +982,7 @@
         <v>16235</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>37741</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>22636</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1146,7 @@
         <v>25783</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1187,7 @@
         <v>25183</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1207,14 +1228,14 @@
         <v>28814</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12"/>
-    <row r="17" spans="3:14" ht="12"/>
-    <row r="20" spans="3:14" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="3:14" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="3:14" ht="15.75" customHeight="1">
+    <row r="21" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1227,7 +1248,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="3:14" ht="15.75" customHeight="1">
+    <row r="22" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1241,7 +1262,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="3:14" ht="15.75" customHeight="1">
+    <row r="23" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1255,7 +1276,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="3:14" ht="15.75" customHeight="1">
+    <row r="24" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1269,7 +1290,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="3:14" ht="15.75" customHeight="1">
+    <row r="25" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="9"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1283,7 +1304,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="3:14" ht="15.75" customHeight="1">
+    <row r="26" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1297,7 +1318,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="3:14" ht="15.75" customHeight="1">
+    <row r="27" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1311,7 +1332,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="3:14" ht="15.75" customHeight="1">
+    <row r="28" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1322,15 +1343,10 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="3:14" ht="15.75" customHeight="1">
+    <row r="29" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>